--- a/Nitrogen fixation/Data_collection_for_notebook.xlsx
+++ b/Nitrogen fixation/Data_collection_for_notebook.xlsx
@@ -721,11 +721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166525568"/>
-        <c:axId val="222627328"/>
+        <c:axId val="128694912"/>
+        <c:axId val="153015424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166525568"/>
+        <c:axId val="128694912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222627328"/>
+        <c:crossAx val="153015424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -811,7 +811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222627328"/>
+        <c:axId val="153015424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166525568"/>
+        <c:crossAx val="128694912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1565,11 +1565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233852288"/>
-        <c:axId val="234407808"/>
+        <c:axId val="7151616"/>
+        <c:axId val="7153920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233852288"/>
+        <c:axId val="7151616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,7 +1647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234407808"/>
+        <c:crossAx val="7153920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1655,7 +1655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234407808"/>
+        <c:axId val="7153920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,7 +1749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233852288"/>
+        <c:crossAx val="7151616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1886,7 +1886,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2400,11 +2399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="310798976"/>
-        <c:axId val="310995200"/>
+        <c:axId val="7243648"/>
+        <c:axId val="7246208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="310798976"/>
+        <c:axId val="7243648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,7 +2435,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2483,7 +2481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310995200"/>
+        <c:crossAx val="7246208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2491,7 +2489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310995200"/>
+        <c:axId val="7246208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2535,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2578,7 +2575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310798976"/>
+        <c:crossAx val="7243648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2720,7 +2717,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3056,11 +3052,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331915264"/>
-        <c:axId val="331917952"/>
+        <c:axId val="7285760"/>
+        <c:axId val="7288320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331915264"/>
+        <c:axId val="7285760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3088,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3139,7 +3134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331917952"/>
+        <c:crossAx val="7288320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3147,7 +3142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331917952"/>
+        <c:axId val="7288320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4.5"/>
@@ -3194,7 +3189,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3235,7 +3229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331915264"/>
+        <c:crossAx val="7285760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3372,7 +3366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3429,9 +3422,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3476,9 +3469,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3523,9 +3516,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3570,9 +3563,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3617,9 +3610,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3713,9 +3706,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3739,11 +3732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163341440"/>
-        <c:axId val="163343744"/>
+        <c:axId val="7656576"/>
+        <c:axId val="7658880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163341440"/>
+        <c:axId val="7656576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +3826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163343744"/>
+        <c:crossAx val="7658880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3841,7 +3834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163343744"/>
+        <c:axId val="7658880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,7 +3880,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3928,7 +3920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163341440"/>
+        <c:crossAx val="7656576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4070,7 +4062,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4127,9 +4118,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4174,9 +4165,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4221,9 +4212,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4268,9 +4259,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4315,9 +4306,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4411,9 +4402,9 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:multiLvlStrRef>
               <c:f>'Run 4'!$G$2:$G$16</c:f>
-            </c:numRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4437,11 +4428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163370880"/>
-        <c:axId val="163381632"/>
+        <c:axId val="7719168"/>
+        <c:axId val="7734016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163370880"/>
+        <c:axId val="7719168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,7 +4518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163381632"/>
+        <c:crossAx val="7734016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4535,7 +4526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163381632"/>
+        <c:axId val="7734016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3.5"/>
@@ -4582,7 +4573,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4623,7 +4613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163370880"/>
+        <c:crossAx val="7719168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4761,7 +4751,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5268,11 +5257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163424896"/>
-        <c:axId val="163562624"/>
+        <c:axId val="7814528"/>
+        <c:axId val="8062848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163424896"/>
+        <c:axId val="7814528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5309,7 +5298,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5356,7 +5344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163562624"/>
+        <c:crossAx val="8062848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5364,7 +5352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163562624"/>
+        <c:axId val="8062848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5410,7 +5398,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5451,7 +5438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163424896"/>
+        <c:crossAx val="7814528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5465,7 +5452,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9360,7 +9346,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A04AD3-6092-4761-B38F-5E8D24E7DB50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0A04AD3-6092-4761-B38F-5E8D24E7DB50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9401,7 +9387,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6446648-E542-4A13-9453-12DB8FF5EB19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6446648-E542-4A13-9453-12DB8FF5EB19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9442,7 +9428,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7318174-FF96-4644-9B5E-A22648AF40A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7318174-FF96-4644-9B5E-A22648AF40A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9478,7 +9464,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307489B8-52B0-4000-951D-F5455C01C12F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{307489B8-52B0-4000-951D-F5455C01C12F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9519,7 +9505,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86107D6-AE3F-4259-8BAF-905B8C6B23C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E86107D6-AE3F-4259-8BAF-905B8C6B23C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9555,7 +9541,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B199F7C-BE27-4C5E-BA98-6E9CBFC435E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B199F7C-BE27-4C5E-BA98-6E9CBFC435E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9591,7 +9577,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88307FC5-245C-43C6-AE00-3515D47E2232}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88307FC5-245C-43C6-AE00-3515D47E2232}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9986,7 +9972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17406,7 +17392,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17482,7 +17468,8 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <f>167*2</f>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">

--- a/Nitrogen fixation/Data_collection_for_notebook.xlsx
+++ b/Nitrogen fixation/Data_collection_for_notebook.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zvsta\Documents\GitHub\CSC4102020\Nitrogen fixation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDB1E46-D191-4D12-9A65-7262D4166EC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -12,9 +18,10 @@
     <sheet name="Run 2" sheetId="3" r:id="rId3"/>
     <sheet name="Run3" sheetId="4" r:id="rId4"/>
     <sheet name="Run 4" sheetId="7" r:id="rId5"/>
-    <sheet name="webpage" sheetId="8" r:id="rId6"/>
+    <sheet name="webpage1" sheetId="8" r:id="rId6"/>
+    <sheet name="webpage" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -187,11 +194,20 @@
   <si>
     <t>Glucose</t>
   </si>
+  <si>
+    <t>Glucose [cmmol/L]</t>
+  </si>
+  <si>
+    <t>Biomass (cells/mL),</t>
+  </si>
+  <si>
+    <t>Biomass(g/L)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,21 +370,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -383,7 +387,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ hh:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -398,7 +411,22 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ hh:mm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -418,11 +446,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ hh:mm"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -439,9 +467,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -486,6 +514,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -596,7 +644,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CDA7-4ED8-AD41-C07BB30505BE}"/>
             </c:ext>
@@ -705,7 +753,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CDA7-4ED8-AD41-C07BB30505BE}"/>
             </c:ext>
@@ -765,6 +813,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -865,6 +933,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -942,14 +1030,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -985,9 +1073,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1032,6 +1120,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1154,7 +1262,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-083C-4B77-9188-38EC3ABF62AC}"/>
             </c:ext>
@@ -1233,7 +1341,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-083C-4B77-9188-38EC3ABF62AC}"/>
             </c:ext>
@@ -1312,7 +1420,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-083C-4B77-9188-38EC3ABF62AC}"/>
             </c:ext>
@@ -1391,7 +1499,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-083C-4B77-9188-38EC3ABF62AC}"/>
             </c:ext>
@@ -1470,7 +1578,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-083C-4B77-9188-38EC3ABF62AC}"/>
             </c:ext>
@@ -1549,7 +1657,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-083C-4B77-9188-38EC3ABF62AC}"/>
             </c:ext>
@@ -1609,6 +1717,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1717,6 +1845,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1804,14 +1952,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1847,9 +1995,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1894,6 +2042,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2008,7 +2176,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7225-49CA-8919-67D979CB2A68}"/>
             </c:ext>
@@ -2083,7 +2251,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7225-49CA-8919-67D979CB2A68}"/>
             </c:ext>
@@ -2158,7 +2326,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7225-49CA-8919-67D979CB2A68}"/>
             </c:ext>
@@ -2233,7 +2401,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7225-49CA-8919-67D979CB2A68}"/>
             </c:ext>
@@ -2308,7 +2476,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-7225-49CA-8919-67D979CB2A68}"/>
             </c:ext>
@@ -2383,7 +2551,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-7225-49CA-8919-67D979CB2A68}"/>
             </c:ext>
@@ -2443,6 +2611,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2543,6 +2731,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2630,14 +2838,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2673,9 +2881,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2725,6 +2933,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2801,7 +3029,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-30F2-4038-A1F8-6F136E2EDF78}"/>
             </c:ext>
@@ -2848,7 +3076,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-30F2-4038-A1F8-6F136E2EDF78}"/>
             </c:ext>
@@ -2895,7 +3123,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-30F2-4038-A1F8-6F136E2EDF78}"/>
             </c:ext>
@@ -2942,7 +3170,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-30F2-4038-A1F8-6F136E2EDF78}"/>
             </c:ext>
@@ -2989,7 +3217,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-30F2-4038-A1F8-6F136E2EDF78}"/>
             </c:ext>
@@ -3036,7 +3264,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-30F2-4038-A1F8-6F136E2EDF78}"/>
             </c:ext>
@@ -3096,6 +3324,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3197,6 +3445,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3284,14 +3552,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3327,9 +3595,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3374,6 +3642,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3432,7 +3720,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1858-48EF-829A-408CB7946B36}"/>
             </c:ext>
@@ -3479,7 +3767,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1858-48EF-829A-408CB7946B36}"/>
             </c:ext>
@@ -3526,7 +3814,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-1858-48EF-829A-408CB7946B36}"/>
             </c:ext>
@@ -3573,7 +3861,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-1858-48EF-829A-408CB7946B36}"/>
             </c:ext>
@@ -3669,7 +3957,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-1858-48EF-829A-408CB7946B36}"/>
             </c:ext>
@@ -3716,7 +4004,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-1858-48EF-829A-408CB7946B36}"/>
             </c:ext>
@@ -3788,6 +4076,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3888,6 +4196,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3975,14 +4303,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4018,9 +4346,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4070,6 +4398,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4128,7 +4476,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-EAD4-485E-AA7A-DE4885C2B3DD}"/>
             </c:ext>
@@ -4175,7 +4523,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-EAD4-485E-AA7A-DE4885C2B3DD}"/>
             </c:ext>
@@ -4222,7 +4570,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-EAD4-485E-AA7A-DE4885C2B3DD}"/>
             </c:ext>
@@ -4269,7 +4617,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-EAD4-485E-AA7A-DE4885C2B3DD}"/>
             </c:ext>
@@ -4365,7 +4713,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-EAD4-485E-AA7A-DE4885C2B3DD}"/>
             </c:ext>
@@ -4412,7 +4760,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-EAD4-485E-AA7A-DE4885C2B3DD}"/>
             </c:ext>
@@ -4480,6 +4828,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4581,6 +4949,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4668,14 +5056,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4712,9 +5100,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4759,6 +5147,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4835,7 +5243,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-25CE-47BC-B4C3-B66B6278FE08}"/>
             </c:ext>
@@ -4910,7 +5318,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-25CE-47BC-B4C3-B66B6278FE08}"/>
             </c:ext>
@@ -4985,7 +5393,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-25CE-47BC-B4C3-B66B6278FE08}"/>
             </c:ext>
@@ -5060,7 +5468,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-25CE-47BC-B4C3-B66B6278FE08}"/>
             </c:ext>
@@ -5166,7 +5574,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-25CE-47BC-B4C3-B66B6278FE08}"/>
             </c:ext>
@@ -5241,7 +5649,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-25CE-47BC-B4C3-B66B6278FE08}"/>
             </c:ext>
@@ -5306,6 +5714,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5406,6 +5834,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5483,14 +5931,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9346,7 +9794,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0A04AD3-6092-4761-B38F-5E8D24E7DB50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A04AD3-6092-4761-B38F-5E8D24E7DB50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9387,7 +9835,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6446648-E542-4A13-9453-12DB8FF5EB19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6446648-E542-4A13-9453-12DB8FF5EB19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9428,7 +9876,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7318174-FF96-4644-9B5E-A22648AF40A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7318174-FF96-4644-9B5E-A22648AF40A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9464,7 +9912,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{307489B8-52B0-4000-951D-F5455C01C12F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307489B8-52B0-4000-951D-F5455C01C12F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9505,7 +9953,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E86107D6-AE3F-4259-8BAF-905B8C6B23C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86107D6-AE3F-4259-8BAF-905B8C6B23C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9541,7 +9989,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B199F7C-BE27-4C5E-BA98-6E9CBFC435E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B199F7C-BE27-4C5E-BA98-6E9CBFC435E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9577,7 +10025,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88307FC5-245C-43C6-AE00-3515D47E2232}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88307FC5-245C-43C6-AE00-3515D47E2232}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9599,23 +10047,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Results1" displayName="Results1" ref="A1:G19" totalsRowShown="0">
-  <autoFilter ref="A1:G19"/>
-  <sortState ref="A2:D19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Results1" displayName="Results1" ref="A1:G19" totalsRowShown="0">
+  <autoFilter ref="A1:G19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
     <sortCondition ref="B1:B19"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="21"/>
-    <tableColumn id="4" name="Sample name" dataDxfId="20"/>
-    <tableColumn id="5" name="Absorptivity" dataDxfId="19"/>
-    <tableColumn id="2" name="Hours passed"/>
-    <tableColumn id="3" name="Biomass (cells/mL)" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sample name" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Absorptivity" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hours passed"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Biomass (cells/mL)" dataDxfId="22">
       <calculatedColumnFormula>4.9*10^7*Results1[[#This Row],[Absorptivity]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Biomass (g/L)" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Biomass (g/L)" dataDxfId="21">
       <calculatedColumnFormula>2.464*Results1[[#This Row],[Absorptivity]]+0.023</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Biomass (cmmol/L)" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Biomass (cmmol/L)" dataDxfId="20">
       <calculatedColumnFormula>1000*Results1[[#This Row],[Biomass (g/L)]]/24.6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9624,23 +10072,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Results2" displayName="Results2" ref="A1:G67" totalsRowShown="0">
-  <autoFilter ref="A1:G67"/>
-  <sortState ref="A2:C67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Results2" displayName="Results2" ref="A1:G67" totalsRowShown="0">
+  <autoFilter ref="A1:G67" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C67">
     <sortCondition ref="B1:B67"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date and time " dataDxfId="15"/>
-    <tableColumn id="8" name="Sample name" dataDxfId="14"/>
-    <tableColumn id="9" name="Absorptivity" dataDxfId="13"/>
-    <tableColumn id="2" name="Hours passed"/>
-    <tableColumn id="3" name="Biomass (cells/mL)" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date and time " dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Sample name" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Absorptivity" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Hours passed"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Biomass (cells/mL)" dataDxfId="16">
       <calculatedColumnFormula>4.9*10^7*Results2[[#This Row],[Absorptivity]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Biomass (g/L)" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Biomass (g/L)" dataDxfId="15">
       <calculatedColumnFormula>2.464*Results2[[#This Row],[Absorptivity]]+0.023</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Biomass (cmmol/L)" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Biomass (cmmol/L)" dataDxfId="14">
       <calculatedColumnFormula>1000*Results2[[#This Row],[Biomass (g/L)]]/24.6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9649,68 +10097,97 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I49" totalsRowShown="0">
-  <autoFilter ref="A1:I49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:I49" totalsRowShown="0">
+  <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Z1"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:E49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E49">
     <sortCondition ref="B1:B49"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Sample date" dataDxfId="9"/>
-    <tableColumn id="2" name="Sample name"/>
-    <tableColumn id="3" name="Absorptivity"/>
-    <tableColumn id="4" name="pH"/>
-    <tableColumn id="5" name="Time"/>
-    <tableColumn id="6" name="Biomass (cells/mL)" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sample date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Sample name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Absorptivity"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="pH"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Time"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Biomass (cells/mL)" dataDxfId="12">
       <calculatedColumnFormula>4.9*10^7*Table3[[#This Row],[Absorptivity]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Biomass (g/L)" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Biomass (g/L)" dataDxfId="11">
       <calculatedColumnFormula>2.464*Table3[[#This Row],[Absorptivity]]+0.023</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Biomass" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Biomass" dataDxfId="10">
       <calculatedColumnFormula>1000*Table3[[#This Row],[Biomass (g/L)]]/24.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ammonia" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Ammonia" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A1:J91" totalsRowShown="0">
-  <autoFilter ref="A1:J91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table35" displayName="Table35" ref="A1:J91" totalsRowShown="0">
+  <autoFilter ref="A1:J91" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Z5"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:E84">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E84">
     <sortCondition ref="B1:B84"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Sample date" dataDxfId="4"/>
-    <tableColumn id="2" name="Sample name"/>
-    <tableColumn id="3" name="Absorptivity"/>
-    <tableColumn id="6" name="pH"/>
-    <tableColumn id="4" name="Glucose [mmol/L]"/>
-    <tableColumn id="8" name="Glucose [g/L]" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sample date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Sample name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Absorptivity"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="pH"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Glucose [mmol/L]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Glucose [g/L]" dataDxfId="7">
       <calculatedColumnFormula>Table35[[#This Row],[Glucose '[mmol/L']]]*180/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Hours passed"/>
-    <tableColumn id="5" name="Biomass (cells/mL)" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Hours passed"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Biomass (cells/mL)" dataDxfId="6">
       <calculatedColumnFormula>4.9*10^7*Table35[[#This Row],[Absorptivity]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Biomass (g/L)" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Biomass (g/L)" dataDxfId="5">
       <calculatedColumnFormula>2.464*Table35[[#This Row],[Absorptivity]]+0.023</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Biomass (cmmol/L)" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Biomass (cmmol/L)" dataDxfId="4">
       <calculatedColumnFormula>1000*Table35[[#This Row],[Biomass (g/L)]]/24.6</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AC439884-6D56-4723-98F4-212A06091F6E}" name="Table5" displayName="Table5" ref="A1:J16" totalsRowShown="0">
+  <autoFilter ref="A1:J16" xr:uid="{374FC3A2-F220-4793-A6FB-43CDDC4887FB}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4C35728D-46F5-49E4-94B3-BD2C02EB9C79}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{3F4B6E73-ECFB-4A2D-B1DD-A1F2A93CBA0D}" name="Absorptivity"/>
+    <tableColumn id="3" xr3:uid="{2C5D5C4A-20E8-4BA8-BF89-CC624BA1A7C2}" name="pH"/>
+    <tableColumn id="6" xr3:uid="{D5FFC7CF-3C2D-47D4-BF61-3DF6C1D97079}" name="Glucose [g/L]"/>
+    <tableColumn id="4" xr3:uid="{558ACC1A-78AC-49EB-888F-62855DDC0A9C}" name="Glucose [mmol/L]"/>
+    <tableColumn id="5" xr3:uid="{F705722A-BA1A-4969-B47D-5277219BA9B0}" name="Glucose [cmmol/L]">
+      <calculatedColumnFormula>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{20BB9D94-22AE-4E49-93E7-FAC4CA6FE7CF}" name="Biomass (cells/mL)," dataDxfId="3">
+      <calculatedColumnFormula>3*10^7*Table5[[#This Row],[Absorptivity]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2522A996-272A-4C37-A3F4-66AFF041C948}" name="Biomass(g/L)" dataDxfId="2">
+      <calculatedColumnFormula>1*B2+0.023</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{F76B3CBD-8E09-4145-8810-C65F670099AB}" name="Biomass" dataDxfId="1">
+      <calculatedColumnFormula>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{20ED7EA2-951D-48F2-B142-8C6D53642843}" name="Glucose" dataDxfId="0">
+      <calculatedColumnFormula>(D2/30)*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9972,14 +10449,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10278,7 +10755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10815,7 +11292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
@@ -12674,7 +13151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14189,12 +14666,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J76"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17388,11 +17865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17720,4 +18197,562 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F04CFF-8F39-4C3A-A2CA-863A577257A3}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5.2</v>
+      </c>
+      <c r="D2">
+        <v>10.000800000000002</v>
+      </c>
+      <c r="E2">
+        <v>55.56</v>
+      </c>
+      <c r="F2">
+        <f>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</f>
+        <v>120.11360832000003</v>
+      </c>
+      <c r="G2">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H16" si="0">1*B2+0.023</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="I2">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>0.93495934959349591</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J16" si="1">(D2/30)*1000</f>
+        <v>333.36000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>1890000</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I3">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>3.4959349593495932</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="C4">
+        <v>4.8</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>56.8</v>
+      </c>
+      <c r="F4">
+        <f>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</f>
+        <v>120.104</v>
+      </c>
+      <c r="G4">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>9870000</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.35200000000000004</v>
+      </c>
+      <c r="I4">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>14.308943089430896</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>333.33333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>0.26619999999999999</v>
+      </c>
+      <c r="C5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>7986000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="I5">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>11.756097560975608</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="C6">
+        <v>4.7</v>
+      </c>
+      <c r="D6">
+        <v>9.6120000000000001</v>
+      </c>
+      <c r="E6">
+        <v>53.4</v>
+      </c>
+      <c r="F6">
+        <f>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</f>
+        <v>115.4439648</v>
+      </c>
+      <c r="G6">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>12108000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.42660000000000003</v>
+      </c>
+      <c r="I6">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>17.341463414634145</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>320.40000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="C7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>13560000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.47500000000000003</v>
+      </c>
+      <c r="I7">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>19.308943089430894</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="C8">
+        <v>4.2</v>
+      </c>
+      <c r="D8">
+        <v>5.274</v>
+      </c>
+      <c r="E8">
+        <v>29.3</v>
+      </c>
+      <c r="F8">
+        <f>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</f>
+        <v>63.342849600000001</v>
+      </c>
+      <c r="G8">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>27240000</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I8">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>37.845528455284551</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>175.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>76.5</v>
+      </c>
+      <c r="B9">
+        <v>1.534</v>
+      </c>
+      <c r="C9">
+        <v>4.2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>46020000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="I9">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>63.292682926829265</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>96</v>
+      </c>
+      <c r="B10">
+        <v>1.429</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0.73799999999999988</v>
+      </c>
+      <c r="E10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F10">
+        <f>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</f>
+        <v>8.8636751999999994</v>
+      </c>
+      <c r="G10">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>42870000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.452</v>
+      </c>
+      <c r="I10">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>59.024390243902438</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>24.599999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100.5</v>
+      </c>
+      <c r="B11">
+        <v>1.534</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>46020000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="I11">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>63.292682926829265</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>144</v>
+      </c>
+      <c r="B12">
+        <v>1.202</v>
+      </c>
+      <c r="C12">
+        <v>3.9</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>36060000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="I12">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>49.796747967479661</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>148.5</v>
+      </c>
+      <c r="B13">
+        <v>1.329</v>
+      </c>
+      <c r="C13">
+        <v>3.9</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>39870000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.3519999999999999</v>
+      </c>
+      <c r="I13">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>54.959349593495922</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>168</v>
+      </c>
+      <c r="B14">
+        <v>1.2509999999999999</v>
+      </c>
+      <c r="C14">
+        <v>3.9</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>37530000</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.2739999999999998</v>
+      </c>
+      <c r="I14">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>51.788617886178848</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>192</v>
+      </c>
+      <c r="B15">
+        <v>1.141</v>
+      </c>
+      <c r="C15">
+        <v>3.9</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>34230000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="I15">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>47.317073170731703</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>216</v>
+      </c>
+      <c r="B16">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>(((Table5[[#This Row],[Glucose '[g/L']]]*2)*(180.156)*(1/1000))/30)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>3*10^7*Table5[[#This Row],[Absorptivity]]</f>
+        <v>39420000</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.337</v>
+      </c>
+      <c r="I16">
+        <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
+        <v>54.349593495934954</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Nitrogen fixation/Data_collection_for_notebook.xlsx
+++ b/Nitrogen fixation/Data_collection_for_notebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zvsta\Documents\GitHub\CSC4102020\Nitrogen fixation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasemin\Documents\University\Honours\CSCxBRX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDB1E46-D191-4D12-9A65-7262D4166EC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041468A-8C2E-4D1E-B04A-AAD59C614ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -10180,13 +10182,13 @@
     <tableColumn id="7" xr3:uid="{20BB9D94-22AE-4E49-93E7-FAC4CA6FE7CF}" name="Biomass (cells/mL)," dataDxfId="3">
       <calculatedColumnFormula>3*10^7*Table5[[#This Row],[Absorptivity]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2522A996-272A-4C37-A3F4-66AFF041C948}" name="Biomass(g/L)" dataDxfId="2">
-      <calculatedColumnFormula>1*B2+0.023</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{2522A996-272A-4C37-A3F4-66AFF041C948}" name="Biomass(g/L)" dataDxfId="0">
+      <calculatedColumnFormula>3.2*B2+0.023</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F76B3CBD-8E09-4145-8810-C65F670099AB}" name="Biomass" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{F76B3CBD-8E09-4145-8810-C65F670099AB}" name="Biomass" dataDxfId="2">
       <calculatedColumnFormula>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{20ED7EA2-951D-48F2-B142-8C6D53642843}" name="Glucose" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{20ED7EA2-951D-48F2-B142-8C6D53642843}" name="Glucose" dataDxfId="1">
       <calculatedColumnFormula>(D2/30)*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10463,14 +10465,14 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -10478,12 +10480,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10494,7 +10496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10505,7 +10507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -10513,12 +10515,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -10529,7 +10531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -10540,7 +10542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -10551,7 +10553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -10562,7 +10564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -10573,7 +10575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -10592,12 +10594,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -10608,7 +10610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -10619,7 +10621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -10630,7 +10632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -10641,7 +10643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -10652,7 +10654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -10660,7 +10662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -10668,12 +10670,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -10684,7 +10686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -10695,7 +10697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -10706,7 +10708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -10717,7 +10719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -10728,7 +10730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -10739,7 +10741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -10763,18 +10765,18 @@
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43857.5</v>
       </c>
@@ -10823,7 +10825,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43858.458333333336</v>
       </c>
@@ -10849,7 +10851,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43859.458333333336</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43861.4375</v>
       </c>
@@ -10902,7 +10904,7 @@
         <v>343.8917073170731</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43864.322916666664</v>
       </c>
@@ -10929,7 +10931,7 @@
         <v>102.700162601626</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43865.3125</v>
       </c>
@@ -10956,7 +10958,7 @@
         <v>111.11382113821139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43866.305555555555</v>
       </c>
@@ -10983,7 +10985,7 @@
         <v>79.66276422764227</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>43867.302083333336</v>
       </c>
@@ -11010,7 +11012,7 @@
         <v>88.4770731707317</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43868.302083333336</v>
       </c>
@@ -11037,7 +11039,7 @@
         <v>116.32227642276422</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>43857.5</v>
       </c>
@@ -11064,7 +11066,7 @@
         <v>14.75739837398374</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43858.458333333336</v>
       </c>
@@ -11091,7 +11093,7 @@
         <v>18.363252032520325</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>43859.458333333336</v>
       </c>
@@ -11118,7 +11120,7 @@
         <v>288.0009756097561</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43861.4375</v>
       </c>
@@ -11145,7 +11147,7 @@
         <v>309.2354471544715</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>43864.322916666664</v>
       </c>
@@ -11172,7 +11174,7 @@
         <v>76.056910569105682</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>43865.3125</v>
       </c>
@@ -11199,7 +11201,7 @@
         <v>166.20325203252028</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>43866.305555555555</v>
       </c>
@@ -11226,7 +11228,7 @@
         <v>143.3661788617886</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>43867.302083333336</v>
       </c>
@@ -11253,7 +11255,7 @@
         <v>110.71317073170732</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>43868.302083333336</v>
       </c>
@@ -11300,18 +11302,18 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -11334,7 +11336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43871.541666666664</v>
       </c>
@@ -11360,7 +11362,7 @@
         <v>3.0383739837398371</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43871.583333333336</v>
       </c>
@@ -11386,7 +11388,7 @@
         <v>3.1385365853658533</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43872.262499999997</v>
       </c>
@@ -11412,7 +11414,7 @@
         <v>2.2370731707317071</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43872.645833333336</v>
       </c>
@@ -11438,7 +11440,7 @@
         <v>2.8380487804878043</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43873.270833333336</v>
       </c>
@@ -11464,7 +11466,7 @@
         <v>10.250081300813006</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43873.520833333336</v>
       </c>
@@ -11490,7 +11492,7 @@
         <v>17.762276422764227</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43874.270833333336</v>
       </c>
@@ -11516,7 +11518,7 @@
         <v>125.33691056910568</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>43874.46875</v>
       </c>
@@ -11542,7 +11544,7 @@
         <v>129.54373983739836</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43874.677083333336</v>
       </c>
@@ -11568,7 +11570,7 @@
         <v>106.70666666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>43875.270833333336</v>
       </c>
@@ -11594,7 +11596,7 @@
         <v>131.74731707317073</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43875.447916666664</v>
       </c>
@@ -11620,7 +11622,7 @@
         <v>136.45495934959348</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>43871.541666666664</v>
       </c>
@@ -11646,7 +11648,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43871.583333333336</v>
       </c>
@@ -11672,7 +11674,7 @@
         <v>1.2354471544715446</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>43872.262499999997</v>
       </c>
@@ -11698,7 +11700,7 @@
         <v>1.1352845528455284</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>43872.645833333336</v>
       </c>
@@ -11724,7 +11726,7 @@
         <v>1.2354471544715446</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>43873.270833333336</v>
       </c>
@@ -11750,7 +11752,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>43873.520833333336</v>
       </c>
@@ -11776,7 +11778,7 @@
         <v>1.2354471544715446</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>43874.270833333336</v>
       </c>
@@ -11802,7 +11804,7 @@
         <v>6.0432520325203241</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>43874.46875</v>
       </c>
@@ -11828,7 +11830,7 @@
         <v>2.8380487804878043</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>43874.677083333336</v>
       </c>
@@ -11854,7 +11856,7 @@
         <v>26.776910569105695</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>43875.270833333336</v>
       </c>
@@ -11880,7 +11882,7 @@
         <v>3.5391869918699186</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>43875.447916666664</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>4.8413008130081296</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>43871.541666666664</v>
       </c>
@@ -11932,7 +11934,7 @@
         <v>3.6393495934959343</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>43871.583333333336</v>
       </c>
@@ -11958,7 +11960,7 @@
         <v>7.1450406504065027</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>43872.262499942131</v>
       </c>
@@ -11984,7 +11986,7 @@
         <v>2.3372357723577233</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>43872.645833333336</v>
       </c>
@@ -12010,7 +12012,7 @@
         <v>4.1401626016260158</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>43873.270833333336</v>
       </c>
@@ -12036,7 +12038,7 @@
         <v>26.877073170731702</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>43873.520833333336</v>
       </c>
@@ -12062,7 +12064,7 @@
         <v>41.10016260162601</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>43874.270833333336</v>
       </c>
@@ -12088,7 +12090,7 @@
         <v>189.44097560975607</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>43874.46875</v>
       </c>
@@ -12114,7 +12116,7 @@
         <v>196.15186991869919</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>43874.677083333336</v>
       </c>
@@ -12140,7 +12142,7 @@
         <v>148.17398373983738</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>43875.270833333336</v>
       </c>
@@ -12166,7 +12168,7 @@
         <v>127.34016260162602</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>43875.447916608799</v>
       </c>
@@ -12192,7 +12194,7 @@
         <v>150.37756097560975</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>43871.541666666664</v>
       </c>
@@ -12218,7 +12220,7 @@
         <v>6.9447154471544712</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>43871.583333333336</v>
       </c>
@@ -12244,7 +12246,7 @@
         <v>12.453658536585365</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>43872.262499942131</v>
       </c>
@@ -12270,7 +12272,7 @@
         <v>10.450406504065041</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>43872.645833333336</v>
       </c>
@@ -12296,7 +12298,7 @@
         <v>10.650731707317075</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>43873.270833333336</v>
       </c>
@@ -12322,7 +12324,7 @@
         <v>10.75089430894309</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>43873.520833333336</v>
       </c>
@@ -12348,7 +12350,7 @@
         <v>14.75739837398374</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>43874.270833333336</v>
       </c>
@@ -12374,7 +12376,7 @@
         <v>185.83512195121949</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>43874.46875</v>
       </c>
@@ -12400,7 +12402,7 @@
         <v>173.5151219512195</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>43874.677083333336</v>
       </c>
@@ -12426,7 +12428,7 @@
         <v>144.76845528455283</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43875.270833333336</v>
       </c>
@@ -12452,7 +12454,7 @@
         <v>127.34016260162602</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>43875.447916608799</v>
       </c>
@@ -12478,7 +12480,7 @@
         <v>153.98341463414633</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>43871.541666666664</v>
       </c>
@@ -12504,7 +12506,7 @@
         <v>34.990243902439026</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>43871.583333333336</v>
       </c>
@@ -12530,7 +12532,7 @@
         <v>36.793170731707313</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>43872.262499942131</v>
       </c>
@@ -12556,7 +12558,7 @@
         <v>44.004878048780483</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>43872.645833333336</v>
       </c>
@@ -12582,7 +12584,7 @@
         <v>38.596097560975608</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>43873.270833333336</v>
       </c>
@@ -12608,7 +12610,7 @@
         <v>56.024390243902438</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>43873.520833333336</v>
       </c>
@@ -12634,7 +12636,7 @@
         <v>47.710894308943089</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>43874.270833333336</v>
       </c>
@@ -12660,7 +12662,7 @@
         <v>202.26178861788614</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>43874.46875</v>
       </c>
@@ -12686,7 +12688,7 @@
         <v>183.63154471544712</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>43874.677083333336</v>
       </c>
@@ -12712,7 +12714,7 @@
         <v>119.42731707317074</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>43875.270833333336</v>
       </c>
@@ -12738,7 +12740,7 @@
         <v>171.31154471544716</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>43875.447916608799</v>
       </c>
@@ -12764,7 +12766,7 @@
         <v>107.00715447154469</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>43871.541666666664</v>
       </c>
@@ -12790,7 +12792,7 @@
         <v>18.663739837398371</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>43871.583333333336</v>
       </c>
@@ -12816,7 +12818,7 @@
         <v>20.666991869918697</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>43872.262499942131</v>
       </c>
@@ -12842,7 +12844,7 @@
         <v>12.85430894308943</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>43872.645833333336</v>
       </c>
@@ -12868,7 +12870,7 @@
         <v>11.852682926829269</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>43873.270833333336</v>
       </c>
@@ -12894,7 +12896,7 @@
         <v>11.051382113821136</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>43873.520833333336</v>
       </c>
@@ -12920,7 +12922,7 @@
         <v>7.9463414634146341</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>43874.270833333336</v>
       </c>
@@ -12946,7 +12948,7 @@
         <v>103.90211382113822</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>43874.46875</v>
       </c>
@@ -12972,7 +12974,7 @@
         <v>134.05105691056909</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>43874.677083333336</v>
       </c>
@@ -12998,7 +13000,7 @@
         <v>142.36455284552844</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>43875.270833333336</v>
       </c>
@@ -13024,7 +13026,7 @@
         <v>153.58276422764226</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>43875.447916608799</v>
       </c>
@@ -13050,94 +13052,94 @@
         <v>174.31642276422764</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="2"/>
     </row>
   </sheetData>
@@ -13159,18 +13161,18 @@
       <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
@@ -13199,7 +13201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>43875.541666666664</v>
       </c>
@@ -13231,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>43878.277777777781</v>
       </c>
@@ -13263,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>43878.458333333336</v>
       </c>
@@ -13295,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>43879.277777777781</v>
       </c>
@@ -13327,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>43879.666666666664</v>
       </c>
@@ -13359,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>43880.277777777781</v>
       </c>
@@ -13391,7 +13393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>43880.583333333336</v>
       </c>
@@ -13423,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>43881.277777777781</v>
       </c>
@@ -13455,7 +13457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>43875.541666666664</v>
       </c>
@@ -13485,7 +13487,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>43878.277777777781</v>
       </c>
@@ -13515,7 +13517,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>43878.458333333336</v>
       </c>
@@ -13545,7 +13547,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>43879.277777777781</v>
       </c>
@@ -13575,7 +13577,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>43879.666666666664</v>
       </c>
@@ -13605,7 +13607,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>43880.277777777781</v>
       </c>
@@ -13635,7 +13637,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>43880.583333333336</v>
       </c>
@@ -13665,7 +13667,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>43881.277777777781</v>
       </c>
@@ -13695,7 +13697,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>43875.541666666664</v>
       </c>
@@ -13725,7 +13727,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>43878.277777777781</v>
       </c>
@@ -13755,7 +13757,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>43878.458333333336</v>
       </c>
@@ -13785,7 +13787,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>43879.277777777781</v>
       </c>
@@ -13815,7 +13817,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>43879.666666608799</v>
       </c>
@@ -13845,7 +13847,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>43880.277777777781</v>
       </c>
@@ -13875,7 +13877,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>43880.583333333336</v>
       </c>
@@ -13905,7 +13907,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>43881.277777777781</v>
       </c>
@@ -13935,7 +13937,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>43875.541666666664</v>
       </c>
@@ -13965,7 +13967,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>43878.277777777781</v>
       </c>
@@ -13995,7 +13997,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>43878.458333333336</v>
       </c>
@@ -14025,7 +14027,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>43879.277777777781</v>
       </c>
@@ -14055,7 +14057,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>43879.666666608799</v>
       </c>
@@ -14085,7 +14087,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>43880.277777777781</v>
       </c>
@@ -14115,7 +14117,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>43880.583333333336</v>
       </c>
@@ -14145,7 +14147,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>43881.277777777781</v>
       </c>
@@ -14175,7 +14177,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>43875.541666666664</v>
       </c>
@@ -14205,7 +14207,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>43878.277777777781</v>
       </c>
@@ -14235,7 +14237,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>43878.458333333336</v>
       </c>
@@ -14265,7 +14267,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>43879.277777777781</v>
       </c>
@@ -14295,7 +14297,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>43879.666666608799</v>
       </c>
@@ -14325,7 +14327,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>43880.277777777781</v>
       </c>
@@ -14355,7 +14357,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>43880.583333333336</v>
       </c>
@@ -14385,7 +14387,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>43881.277777777781</v>
       </c>
@@ -14415,7 +14417,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>43875.541666666664</v>
       </c>
@@ -14445,7 +14447,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>43878.277777777781</v>
       </c>
@@ -14475,7 +14477,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>43878.458333333336</v>
       </c>
@@ -14505,7 +14507,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>43879.277777777781</v>
       </c>
@@ -14535,7 +14537,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>43879.666666608799</v>
       </c>
@@ -14565,7 +14567,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>43880.277777777781</v>
       </c>
@@ -14595,7 +14597,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>43880.583333333336</v>
       </c>
@@ -14625,7 +14627,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>43881.277777777781</v>
       </c>
@@ -14674,20 +14676,20 @@
       <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
@@ -14719,7 +14721,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>43885.277777777781</v>
       </c>
@@ -14755,7 +14757,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>43885.486111111109</v>
       </c>
@@ -14788,7 +14790,7 @@
         <v>2.4373983739837399</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>43886.277777777781</v>
       </c>
@@ -14824,7 +14826,7 @@
         <v>9.7492682926829257</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>43886.611111111109</v>
       </c>
@@ -14857,7 +14859,7 @@
         <v>7.4555447154471537</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>43887.277777777781</v>
       </c>
@@ -14893,7 +14895,7 @@
         <v>12.784195121951221</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>43887.506944444445</v>
       </c>
@@ -14926,7 +14928,7 @@
         <v>30.873560975609752</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>43888.277777777781</v>
       </c>
@@ -14962,7 +14964,7 @@
         <v>105.1040650406504</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>43888.465277777781</v>
       </c>
@@ -14995,7 +14997,7 @@
         <v>85.973008130081297</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>43889.277777777781</v>
       </c>
@@ -15031,7 +15033,7 @@
         <v>65.339512195121941</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>43889.465277777781</v>
       </c>
@@ -15064,7 +15066,7 @@
         <v>85.973008130081297</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>43892.277777777781</v>
       </c>
@@ -15100,7 +15102,7 @@
         <v>32.486178861788616</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>43892.465277777781</v>
       </c>
@@ -15133,7 +15135,7 @@
         <v>15.057886178861787</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>43893.277777777781</v>
       </c>
@@ -15169,7 +15171,7 @@
         <v>51.817560975609744</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>43894.277777777781</v>
       </c>
@@ -15205,7 +15207,7 @@
         <v>49.013008130081289</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>43895.277777777781</v>
       </c>
@@ -15241,7 +15243,7 @@
         <v>63.536585365853654</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>43885.277777777781</v>
       </c>
@@ -15277,7 +15279,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>43885.486111111109</v>
       </c>
@@ -15310,7 +15312,7 @@
         <v>5.041626016260162</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>43886.277777777781</v>
       </c>
@@ -15346,7 +15348,7 @@
         <v>5.3421138211382111</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>43886.611111111109</v>
       </c>
@@ -15379,7 +15381,7 @@
         <v>7.1450406504065027</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>43887.277777777781</v>
       </c>
@@ -15415,7 +15417,7 @@
         <v>11.401951219512194</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>43887.506944444445</v>
       </c>
@@ -15448,7 +15450,7 @@
         <v>26.776910569105695</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>43888.277777777781</v>
       </c>
@@ -15484,7 +15486,7 @@
         <v>85.472195121951216</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>43888.465277777781</v>
       </c>
@@ -15517,7 +15519,7 @@
         <v>79.2621138211382</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>43889.277777777781</v>
       </c>
@@ -15553,7 +15555,7 @@
         <v>59.32975609756096</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>43889.465277777781</v>
       </c>
@@ -15586,7 +15588,7 @@
         <v>79.2621138211382</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>43892.277777777781</v>
       </c>
@@ -15622,7 +15624,7 @@
         <v>14.056260162601626</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>43892.465277777781</v>
       </c>
@@ -15655,7 +15657,7 @@
         <v>6.5440650406504055</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>43893.277777777781</v>
       </c>
@@ -15691,7 +15693,7 @@
         <v>45.30699186991869</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>43894.277777777781</v>
       </c>
@@ -15727,7 +15729,7 @@
         <v>38.696260162601625</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>43895.277777777781</v>
       </c>
@@ -15763,7 +15765,7 @@
         <v>46.709268292682914</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>43885.277777777781</v>
       </c>
@@ -15799,7 +15801,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>43885.486111111109</v>
       </c>
@@ -15832,7 +15834,7 @@
         <v>3.5391869918699186</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>43886.277777777781</v>
       </c>
@@ -15868,7 +15870,7 @@
         <v>8.4471544715447138</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>43886.611111111109</v>
       </c>
@@ -15901,7 +15903,7 @@
         <v>8.1666991869918704</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>43887.277777777781</v>
       </c>
@@ -15937,7 +15939,7 @@
         <v>11.692422764227642</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>43887.506944444445</v>
       </c>
@@ -15970,7 +15972,7 @@
         <v>22.399804878048776</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>43888.277777777781</v>
       </c>
@@ -16006,7 +16008,7 @@
         <v>91.381788617886187</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>43888.465277777781</v>
       </c>
@@ -16039,7 +16041,7 @@
         <v>94.28650406504066</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>43889.277777777781</v>
       </c>
@@ -16075,7 +16077,7 @@
         <v>74.253983739837395</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>43889.465277777781</v>
       </c>
@@ -16108,7 +16110,7 @@
         <v>94.28650406504066</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>43892.277777777781</v>
       </c>
@@ -16144,7 +16146,7 @@
         <v>38.295609756097562</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>43892.465277777781</v>
       </c>
@@ -16177,7 +16179,7 @@
         <v>23.671869918699191</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>43893.277777777781</v>
       </c>
@@ -16213,7 +16215,7 @@
         <v>59.429918699186977</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>43894.277777777781</v>
       </c>
@@ -16249,7 +16251,7 @@
         <v>61.533333333333331</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>43895.277777777781</v>
       </c>
@@ -16285,7 +16287,7 @@
         <v>69.74666666666667</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>43885.277777777781</v>
       </c>
@@ -16322,7 +16324,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>43885.486111111109</v>
       </c>
@@ -16355,7 +16357,7 @@
         <v>6.0432520325203241</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>43886.277777777781</v>
       </c>
@@ -16391,7 +16393,7 @@
         <v>46.108292682926823</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>43886.611111111109</v>
       </c>
@@ -16424,7 +16426,7 @@
         <v>51.517073170731699</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>43887.277777777781</v>
       </c>
@@ -16460,7 +16462,7 @@
         <v>57.877398373983731</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>43887.506944444445</v>
       </c>
@@ -16493,7 +16495,7 @@
         <v>61.443186991869908</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>43888.277777777781</v>
       </c>
@@ -16529,7 +16531,7 @@
         <v>83.068292682926838</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>43888.465277777781</v>
       </c>
@@ -16562,7 +16564,7 @@
         <v>159.49235772357724</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <v>43889.277777777781</v>
       </c>
@@ -16598,7 +16600,7 @@
         <v>174.51674796747966</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <v>43889.465277777781</v>
       </c>
@@ -16631,7 +16633,7 @@
         <v>159.49235772357724</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10">
         <v>43892.277777777781</v>
       </c>
@@ -16667,7 +16669,7 @@
         <v>119.12682926829268</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <v>43892.465277777781</v>
       </c>
@@ -16700,7 +16702,7 @@
         <v>134.05105691056909</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>43893.277777777781</v>
       </c>
@@ -16736,7 +16738,7 @@
         <v>117.92487804878047</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>43894.277777777781</v>
       </c>
@@ -16772,7 +16774,7 @@
         <v>109.71154471544715</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>43895.277777777781</v>
       </c>
@@ -16808,7 +16810,7 @@
         <v>123.03317073170732</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>43885.277777777781</v>
       </c>
@@ -16845,7 +16847,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>43885.486111111109</v>
       </c>
@@ -16878,7 +16880,7 @@
         <v>7.2452032520325202</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
         <v>43886.277777777781</v>
       </c>
@@ -16914,7 +16916,7 @@
         <v>33.888455284552848</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="10">
         <v>43886.611111111109</v>
       </c>
@@ -16947,7 +16949,7 @@
         <v>27.598243902439023</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="10">
         <v>43887.277777777781</v>
       </c>
@@ -16983,7 +16985,7 @@
         <v>41.360585365853652</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>43887.506944444445</v>
       </c>
@@ -17016,7 +17018,7 @@
         <v>46.208455284552848</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>43888.277777777781</v>
       </c>
@@ -17052,7 +17054,7 @@
         <v>91.882601626016267</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>43888.465277777781</v>
       </c>
@@ -17085,7 +17087,7 @@
         <v>154.58439024390245</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>43889.277777777781</v>
       </c>
@@ -17121,7 +17123,7 @@
         <v>144.06731707317076</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>43889.465277777781</v>
       </c>
@@ -17154,7 +17156,7 @@
         <v>154.58439024390245</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>43892.277777777781</v>
       </c>
@@ -17190,7 +17192,7 @@
         <v>121.33040650406504</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>43892.465277777781</v>
       </c>
@@ -17223,7 +17225,7 @@
         <v>134.05105691056909</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="10">
         <v>43893.277777777781</v>
       </c>
@@ -17259,7 +17261,7 @@
         <v>126.23837398373983</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="10">
         <v>43894.277777777781</v>
       </c>
@@ -17295,7 +17297,7 @@
         <v>115.22048780487806</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="10">
         <v>43895.277777777781</v>
       </c>
@@ -17331,7 +17333,7 @@
         <v>132.54861788617887</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10">
         <v>43885.277777777781</v>
       </c>
@@ -17368,7 +17370,7 @@
         <v>0.93495934959349591</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
         <v>43885.486111111109</v>
       </c>
@@ -17401,7 +17403,7 @@
         <v>5.9430894308943083</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10">
         <v>43886.277777777781</v>
       </c>
@@ -17437,7 +17439,7 @@
         <v>27.678373983739839</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10">
         <v>43886.611111111109</v>
       </c>
@@ -17470,7 +17472,7 @@
         <v>26.927154471544714</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10">
         <v>43887.277777777781</v>
       </c>
@@ -17506,7 +17508,7 @@
         <v>39.737951219512198</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="10">
         <v>43887.506944444445</v>
       </c>
@@ -17539,7 +17541,7 @@
         <v>44.956422764227632</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="10">
         <v>43888.277777777781</v>
       </c>
@@ -17575,7 +17577,7 @@
         <v>67.042276422764218</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10">
         <v>43888.465277777781</v>
       </c>
@@ -17608,7 +17610,7 @@
         <v>136.55512195121952</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10">
         <v>43889.277777777781</v>
       </c>
@@ -17644,7 +17646,7 @@
         <v>144.16747967479674</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10">
         <v>43889.465277777781</v>
       </c>
@@ -17677,7 +17679,7 @@
         <v>136.55512195121952</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10">
         <v>43892.277777777781</v>
       </c>
@@ -17713,7 +17715,7 @@
         <v>99.695284552845536</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10">
         <v>43892.465277777781</v>
       </c>
@@ -17746,7 +17748,7 @@
         <v>118.82634146341464</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10">
         <v>43893.277777777781</v>
       </c>
@@ -17782,7 +17784,7 @@
         <v>74.15382113821137</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="10">
         <v>43894.277777777781</v>
       </c>
@@ -17818,7 +17820,7 @@
         <v>89.078048780487805</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="10">
         <v>43895.277777777781</v>
       </c>
@@ -17872,16 +17874,16 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
@@ -17913,7 +17915,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="23">
         <v>43875.541666666664</v>
       </c>
@@ -17949,7 +17951,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="24">
         <v>43878.277777777781</v>
       </c>
@@ -17984,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>43878.458333333336</v>
       </c>
@@ -18019,7 +18021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="24">
         <v>43879.277777777781</v>
       </c>
@@ -18054,7 +18056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>43879.666666666664</v>
       </c>
@@ -18089,7 +18091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
         <v>43880.277777777781</v>
       </c>
@@ -18124,7 +18126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>43880.583333333336</v>
       </c>
@@ -18159,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="24">
         <v>43881.277777777781</v>
       </c>
@@ -18204,22 +18206,22 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -18251,7 +18253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18276,7 +18278,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H16" si="0">1*B2+0.023</f>
+        <f t="shared" ref="H2:H16" si="0">3.2*B2+0.023</f>
         <v>2.3E-2</v>
       </c>
       <c r="I2">
@@ -18288,7 +18290,7 @@
         <v>333.36000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -18306,16 +18308,16 @@
         <v>1890000</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>8.5999999999999993E-2</v>
+        <f>3.2*B3+0.023</f>
+        <v>0.22459999999999999</v>
       </c>
       <c r="I3">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>3.4959349593495932</v>
+        <v>9.1300813008130071</v>
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>24</v>
       </c>
@@ -18340,19 +18342,19 @@
         <v>9870000</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0.35200000000000004</v>
+        <f>3.2*B4+0.023</f>
+        <v>1.0758000000000001</v>
       </c>
       <c r="I4">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>14.308943089430896</v>
+        <v>43.731707317073173</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>333.33333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>32</v>
       </c>
@@ -18371,15 +18373,15 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.28920000000000001</v>
+        <v>0.87484000000000006</v>
       </c>
       <c r="I5">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>11.756097560975608</v>
+        <v>35.56260162601626</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>48</v>
       </c>
@@ -18405,18 +18407,18 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.42660000000000003</v>
+        <v>1.3145200000000001</v>
       </c>
       <c r="I6">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>17.341463414634145</v>
+        <v>53.435772357723586</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>320.40000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>54</v>
       </c>
@@ -18435,15 +18437,15 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.47500000000000003</v>
+        <v>1.4694</v>
       </c>
       <c r="I7">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>19.308943089430894</v>
+        <v>59.731707317073173</v>
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>72</v>
       </c>
@@ -18469,18 +18471,18 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.93100000000000005</v>
+        <v>2.9286000000000003</v>
       </c>
       <c r="I8">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>37.845528455284551</v>
+        <v>119.04878048780489</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>175.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>76.5</v>
       </c>
@@ -18499,15 +18501,15 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.5569999999999999</v>
+        <v>4.9318</v>
       </c>
       <c r="I9">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>63.292682926829265</v>
+        <v>200.47967479674796</v>
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>96</v>
       </c>
@@ -18533,18 +18535,18 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.452</v>
+        <v>4.5957999999999997</v>
       </c>
       <c r="I10">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>59.024390243902438</v>
+        <v>186.82113821138208</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>24.599999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>100.5</v>
       </c>
@@ -18563,15 +18565,15 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.5569999999999999</v>
+        <v>4.9318</v>
       </c>
       <c r="I11">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>63.292682926829265</v>
+        <v>200.47967479674796</v>
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>144</v>
       </c>
@@ -18597,15 +18599,15 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.2249999999999999</v>
+        <v>3.8694000000000002</v>
       </c>
       <c r="I12">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>49.796747967479661</v>
+        <v>157.29268292682926</v>
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>148.5</v>
       </c>
@@ -18628,17 +18630,17 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.3519999999999999</v>
+        <v>4.2757999999999994</v>
       </c>
       <c r="I13">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>54.959349593495922</v>
+        <v>173.81300813008127</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>168</v>
       </c>
@@ -18664,18 +18666,18 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.2739999999999998</v>
+        <v>4.0261999999999993</v>
       </c>
       <c r="I14">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>51.788617886178848</v>
+        <v>163.66666666666663</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>192</v>
       </c>
@@ -18701,18 +18703,18 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.1639999999999999</v>
+        <v>3.6742000000000004</v>
       </c>
       <c r="I15">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>47.317073170731703</v>
+        <v>149.35772357723579</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>216</v>
       </c>
@@ -18738,11 +18740,11 @@
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.337</v>
+        <v>4.2278000000000002</v>
       </c>
       <c r="I16">
         <f>(1000*Table5[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>54.349593495934954</v>
+        <v>171.86178861788616</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="1"/>
